--- a/BE test suite.xlsx
+++ b/BE test suite.xlsx
@@ -295,22 +295,22 @@
     <t>Successful query ... with missing queryParams params FOR OPTIONAL PARAMETER</t>
   </si>
   <si>
-    <t>tests for Private user authentication</t>
+    <t>tests for admin user authentication</t>
   </si>
   <si>
-    <t>Unsuccessful query ... with empty/missing Private user login parameters (empty accessToken, missing accessToken)</t>
+    <t>Unsuccessful query ... with empty/missing admin user login parameters (empty accessToken, missing accessToken)</t>
   </si>
   <si>
     <t>401 REST_UNAUTHORIZED</t>
   </si>
   <si>
-    <t>Unsuccessful query ... with invalid Private user login parameters (invalid accessToken: regular user's sessionToken, expired)</t>
+    <t>Unsuccessful query ... with invalid admin user login parameters (invalid accessToken: regular user's sessionToken, expired)</t>
   </si>
   <si>
     <t>401 INVALID_TOKEN</t>
   </si>
   <si>
-    <t>Unsuccessful query ... without Private user group permission</t>
+    <t>Unsuccessful query ... without admin user group permission</t>
   </si>
   <si>
     <t>403 REST_FORBIDDEN</t>
